--- a/biology/Botanique/Lampranthus/Lampranthus.xlsx
+++ b/biology/Botanique/Lampranthus/Lampranthus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lampranthus est un genre de plante de la famille des Aizoaceae orginaire d'Afrique du Sud.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du genre "Lampranthus" signifie "fleurs brillantes" en grec. Les espèces de ce genre ont des fleurs exceptionnellement grandes et lumineuses, d'une gamme de couleurs importante. Toutes les espèces de Lampranthus fleurissent entre juin et août (dans l'hémisphère nord) avec des couleurs de fleurs allant du rouge, de l'orange, de la pêche, du jaune et du rose clair au magenta et au violet. Ces fleurs recouvrent fréquemment les plantes entièrement. Les espèces de ce genre sont des plantes arbustives ou semi-arbustives au port dressé ou étalé[1]. Elles ont généralement de longues feuilles lisses, allongées et succulentes. Celles-ci peuvent être triangulaires ou cylindriques et,comme toutes les plantes de cette famille, apparaissent par paires opposées sur les branches [2]. Lampranthus se distingue clairement des genres apparentés par ses capsules de graines car leurs valves sont triangulaires et s'ouvrent lorsqu'elles deviennent humides en exposant alors les chambres à graines (locules). Contrairement à Ruschia, chaque valve d'une capsule de Lampranthus a deux ailes, de chaque côté, mais aucun corps de fermeture visible. Contrairement à Delosperma, les graines de Lampranthus sont partiellement recouvertes d'une membranee.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du genre "Lampranthus" signifie "fleurs brillantes" en grec. Les espèces de ce genre ont des fleurs exceptionnellement grandes et lumineuses, d'une gamme de couleurs importante. Toutes les espèces de Lampranthus fleurissent entre juin et août (dans l'hémisphère nord) avec des couleurs de fleurs allant du rouge, de l'orange, de la pêche, du jaune et du rose clair au magenta et au violet. Ces fleurs recouvrent fréquemment les plantes entièrement. Les espèces de ce genre sont des plantes arbustives ou semi-arbustives au port dressé ou étalé. Elles ont généralement de longues feuilles lisses, allongées et succulentes. Celles-ci peuvent être triangulaires ou cylindriques et,comme toutes les plantes de cette famille, apparaissent par paires opposées sur les branches . Lampranthus se distingue clairement des genres apparentés par ses capsules de graines car leurs valves sont triangulaires et s'ouvrent lorsqu'elles deviennent humides en exposant alors les chambres à graines (locules). Contrairement à Ruschia, chaque valve d'une capsule de Lampranthus a deux ailes, de chaque côté, mais aucun corps de fermeture visible. Contrairement à Delosperma, les graines de Lampranthus sont partiellement recouvertes d'une membranee.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Lampranthus acrosepalus (L.Bolus) L.Bolus
